--- a/analysis/metadata/P20_1/P20_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P20_1/P20_1_minimal_metadata.xlsx
@@ -498,17 +498,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Landfill</t>
+          <t>Sandfilter</t>
         </is>
       </c>
     </row>
@@ -571,17 +561,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Landfill</t>
+          <t>Sandfilter</t>
         </is>
       </c>
     </row>
@@ -609,7 +589,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6310</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -644,15 +624,10 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -682,7 +657,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6310</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -717,15 +692,10 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -755,7 +725,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6310</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -790,15 +760,10 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -828,7 +793,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6310</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -863,15 +828,10 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -901,7 +861,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -936,15 +896,10 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -974,7 +929,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1009,15 +964,10 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1047,7 +997,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1082,15 +1032,10 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1120,7 +1065,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1155,15 +1100,10 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1193,7 +1133,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1228,15 +1168,10 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1266,7 +1201,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1301,15 +1236,10 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1339,7 +1269,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1374,15 +1304,10 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1412,7 +1337,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1447,15 +1372,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1485,7 +1405,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1520,15 +1440,10 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1558,7 +1473,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1593,15 +1508,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1631,7 +1541,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1666,15 +1576,10 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1704,7 +1609,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1739,15 +1644,10 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1777,7 +1677,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1812,15 +1712,10 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1850,7 +1745,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1885,15 +1780,10 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1923,7 +1813,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1958,15 +1848,10 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -1996,7 +1881,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2031,15 +1916,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2069,7 +1949,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2104,15 +1984,10 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2142,7 +2017,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2177,15 +2052,10 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2215,7 +2085,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2250,15 +2120,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2288,7 +2153,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2323,15 +2188,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2361,7 +2221,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2396,15 +2256,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
@@ -2434,7 +2289,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2469,15 +2324,10 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
         <is>
           <t>Landfill</t>
         </is>
